--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progs\DIABETES\sc_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDD09F0-53B1-498B-867D-D058CAFDD23A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52F2121-E212-40C2-A376-355C8DF0C28A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12707" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{BF398841-AC02-4FD2-B5BC-F61BBB882823}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{BF398841-AC02-4FD2-B5BC-F61BBB882823}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progs\DIABETES\sc_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52F2121-E212-40C2-A376-355C8DF0C28A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86333552-A5E9-4841-8FCD-F0FAA2DF1DC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{BF398841-AC02-4FD2-B5BC-F61BBB882823}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF398841-AC02-4FD2-B5BC-F61BBB882823}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>MAPE</t>
   </si>
@@ -49,14 +49,54 @@
   </si>
   <si>
     <t>Average dev.</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>Параметр</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>Модель 1</t>
+  </si>
+  <si>
+    <t>Модель 2</t>
+  </si>
+  <si>
+    <t>СС</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>30 мин</t>
+  </si>
+  <si>
+    <t>60 мин</t>
+  </si>
+  <si>
+    <t>120 мин</t>
+  </si>
+  <si>
+    <t>Все тренировки</t>
+  </si>
+  <si>
+    <t>Стандартное отклонение</t>
+  </si>
+  <si>
+    <t>ТОЛКО ЗНАЧЕНИЯ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -83,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -106,11 +146,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -127,6 +193,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -441,19 +530,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72C06BB-681E-4B8D-8DD1-E773BD8CD1D4}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -490,13 +580,13 @@
       <c r="B2" s="5">
         <v>13.602424116446125</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>6.2840850032726256E-2</v>
       </c>
       <c r="D2" s="6">
         <v>14.703444863953223</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>0.98099404931389311</v>
       </c>
       <c r="F2" s="6">
@@ -517,13 +607,13 @@
       <c r="B3" s="5">
         <v>26.405924884336073</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>0.19337450718861815</v>
       </c>
       <c r="D3" s="6">
         <v>29.118681650090842</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>0.95729480404337497</v>
       </c>
       <c r="F3" s="6">
@@ -544,13 +634,13 @@
       <c r="B4" s="5">
         <v>5.6789370419728424</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>3.4867179158983339E-2</v>
       </c>
       <c r="D4" s="6">
         <v>6.7132953738489993</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>0.96925914480491815</v>
       </c>
       <c r="F4" s="6">
@@ -571,13 +661,13 @@
       <c r="B5" s="5">
         <v>19.8901060637731</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>0.18513284454635245</v>
       </c>
       <c r="D5" s="6">
         <v>23.675748489501895</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>0.93450235837066087</v>
       </c>
       <c r="F5" s="6">
@@ -598,13 +688,13 @@
       <c r="B6" s="5">
         <v>9.9076924358686664</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
         <v>7.9391975723725874E-2</v>
       </c>
       <c r="D6" s="6">
         <v>11.861038406520308</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>0.81227457755591437</v>
       </c>
       <c r="F6" s="6">
@@ -625,13 +715,13 @@
       <c r="B7" s="5">
         <v>15.069097561951017</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
         <v>0.1117160128157856</v>
       </c>
       <c r="D7" s="6">
         <v>17.793407946807484</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>0.87834772361765234</v>
       </c>
       <c r="F7" s="6">
@@ -652,13 +742,13 @@
       <c r="B8" s="6">
         <v>13.398361527656348</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="8">
         <v>9.6332350106940523E-2</v>
       </c>
       <c r="D8" s="6">
         <v>16.037601142245624</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>0.98443829261650595</v>
       </c>
       <c r="F8" s="6">
@@ -680,7 +770,7 @@
         <f>AVERAGE(B2:B8)</f>
         <v>14.850363376000596</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <f>AVERAGE(C2:C8)</f>
         <v>0.10909367422473318</v>
       </c>
@@ -688,8 +778,8 @@
         <f t="shared" ref="D9:F9" si="0">AVERAGE(D2:D8)</f>
         <v>17.129031124709769</v>
       </c>
-      <c r="E9" s="7">
-        <f t="shared" si="0"/>
+      <c r="E9" s="9">
+        <f>AVERAGE(E2:E8)</f>
         <v>0.93101585004613141</v>
       </c>
       <c r="F9" s="7">
@@ -705,7 +795,7 @@
         <f>AVEDEV(B2:B8)</f>
         <v>4.8040109663023998</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <f t="shared" ref="C10:F10" si="1">AVEDEV(C2:C8)</f>
         <v>4.6554954821873343E-2</v>
       </c>
@@ -713,7 +803,7 @@
         <f t="shared" si="1"/>
         <v>5.4859270606488337</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="9">
         <f t="shared" si="1"/>
         <v>4.8974113976770303E-2</v>
       </c>
@@ -722,7 +812,316 @@
         <v>6.6808210677995694E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10.708370118901112</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3.9950747450521118</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7">
+        <v>20.173267422089666</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6.2239476477067015</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7">
+        <v>17.793407946807484</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>17.129031124709769</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5.4859270606488337</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.97512659705940563</v>
+      </c>
+      <c r="D18" s="9">
+        <v>5.8674522544874819E-3</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.92212750814661404</v>
+      </c>
+      <c r="D19" s="9">
+        <v>5.4926465295349836E-2</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.87834772361765234</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.93101585004613141</v>
+      </c>
+      <c r="D21" s="9">
+        <v>4.8974113976770303E-2</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="7">
+        <v>10.708370118901099</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3.9950747450521118</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="7">
+        <v>20.173267422089701</v>
+      </c>
+      <c r="D29" s="7">
+        <v>6.2239476477066997</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="10"/>
+      <c r="B30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="7">
+        <v>17.793407946807498</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="B31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="7">
+        <v>17.129031124709769</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5.4859270606488337</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0.97512659705940563</v>
+      </c>
+      <c r="D32" s="9">
+        <v>5.8674522544874819E-3</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
+      <c r="B33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.92212750814661404</v>
+      </c>
+      <c r="D33" s="9">
+        <v>5.4926465295349836E-2</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0.87834772361765234</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0.93101585004613141</v>
+      </c>
+      <c r="D35" s="9">
+        <v>4.8974113976770303E-2</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
